--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/预库存管理模版.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/预库存管理模版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\飞奔的蛋炒饭\Desktop\更新文件夹\6.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\飞奔的蛋炒饭\Desktop\更新文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>区域</t>
   </si>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>预入库数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -445,11 +449,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -460,9 +464,10 @@
     <col min="5" max="5" width="11.125" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +489,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
